--- a/data/trans_bre/P5_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>-27,64%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 2,79</t>
+          <t>-13,79; 2,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 2,91</t>
+          <t>-15,36; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 18,65</t>
+          <t>-55,68; 18,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 22,08</t>
+          <t>-57,85; 22,67</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>-11,64%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 6,82</t>
+          <t>-5,94; 6,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 5,96</t>
+          <t>-9,8; 5,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 78,96</t>
+          <t>-41,32; 72,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 59,87</t>
+          <t>-50,4; 46,11</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-31,48%</t>
+          <t>-25,32%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,4</t>
+          <t>-4,73; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 1,79</t>
+          <t>-11,41; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 76,87</t>
+          <t>-32,89; 68,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 15,84</t>
+          <t>-54,47; 19,56</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,37%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,34</t>
+          <t>-10,51; 2,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,89</t>
+          <t>-4,28; 7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 21,51</t>
+          <t>-50,64; 18,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 81,4</t>
+          <t>-27,68; 73,3</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>-22,82%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,93</t>
+          <t>-9,18; 4,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 2,33</t>
+          <t>-12,46; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 32,09</t>
+          <t>-40,87; 25,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 14,64</t>
+          <t>-51,18; 12,6</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,09%</t>
+          <t>-30,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-7,3%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 0,79</t>
+          <t>-12,25; 0,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 6,06</t>
+          <t>-8,24; 6,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 7,73</t>
+          <t>-54,22; 5,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 55,7</t>
+          <t>-43,76; 57,12</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-15,62%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,23</t>
+          <t>-5,23; 0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,09</t>
+          <t>-5,64; 0,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 1,56</t>
+          <t>-30,42; 0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 0,31</t>
+          <t>-30,32; 2,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-27,25%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-27,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.419590754675515</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.583390185579031</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.272472709205452</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.3476091019656767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; 2,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 3,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-55,68; 18,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; 22,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.79186846252943</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.6038936738156</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5567568184069676</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6332507856390244</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.594085125404703</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.169470669688363</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1799545810370287</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1729703318420776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 6,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 5,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,32; 72,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-50,4; 46,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2238914038730153</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.276169685731674</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01920281899440196</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.0911230139334232</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-25,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.939669690694433</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.559539699406823</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.413187473764235</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4967814135204141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 5,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 2,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-32,89; 68,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-54,47; 19,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.232379978209177</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.745719404343965</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7270400878816109</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5272946119208741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-21,39%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,66%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.049267041090876</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.641515944786961</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.09458418959943425</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2262103249800952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 2,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 7,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-50,64; 18,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-27,68; 73,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.727526474338289</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.11771073431289</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3289403287151574</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5418733534490618</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.967730041722247</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.295418471010449</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.6828362036281904</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2894869828996125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,36%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-22,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 4,09</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 2,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; 25,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-51,18; 12,6</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.477837475666965</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.694024317679166</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.213853550957735</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.133029054146949</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,51</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-30,07%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-7,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.51474634669659</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.984834198471163</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.5063587784173535</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2580612898586352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,25; 0,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 6,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-54,22; 5,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-43,76; 57,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.392677300122939</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.857098419307914</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1886209495199185</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8203854390522805</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-15,73%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-15,62%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.404206538118958</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.661022679882088</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1236070089144157</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.2259686630661796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 0,06</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 0,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; 0,37</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-30,32; 2,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.178218984527859</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.55903716099607</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.4086627736781334</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5016857912297195</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.086671813812752</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.183840251673825</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.2574075433917258</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.143594952836335</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-5.507008987186279</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.9279135735543648</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3007118907134877</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.06083999535446505</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-12.24709272592066</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-7.879122671322886</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5421740509592975</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4275036626506173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.69158746664876</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.692086035979607</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.05385815625882636</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.6046176098218535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.490675825343372</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.4966291891348</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.1572831284406005</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1516350808340317</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.229229736771809</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.502168384557373</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.3042443092757426</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2990745967612032</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.06106342834329691</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5531700261426155</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.003656688395739754</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.04265188969202011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
